--- a/examples/it_income_tax/wrk/INCOME_TAX_BY_MUNICIPALITY_col_names_map.xlsx
+++ b/examples/it_income_tax/wrk/INCOME_TAX_BY_MUNICIPALITY_col_names_map.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lberetta\Documents\dev\RSQLite.toolkit-tests\examples\it_income_tax\wrk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A484E19F-0763-4C7A-B31C-03FD1FA50EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4216CE-041A-4958-839D-24DD286FCBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="col_names" sheetId="1" r:id="rId1"/>
-    <sheet name="col_names_map" sheetId="3" r:id="rId2"/>
+    <sheet name="col_names_map" sheetId="3" r:id="rId1"/>
+    <sheet name="col_names" sheetId="1" r:id="rId2"/>
     <sheet name="pvt check" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">col_names_map!$A$1:$D$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">col_names_map!$A$1:$D$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -689,7 +689,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,6 +699,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -952,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1023,6 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1805,7 +1814,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34674134-5CC0-40C7-B6F2-22549B58E9E0}" name="Tabella pivot3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34674134-5CC0-40C7-B6F2-22549B58E9E0}" name="Tabella pivot3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:D70" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
@@ -2627,6 +2636,1766 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F7AEB-9B26-45DF-B5C9-4083C8002894}">
+  <dimension ref="A1:D116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="109.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1">
+        <f>+IF(B3&lt;&gt;B2,C2+1,C2)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C67" si="0">+IF(B4&lt;&gt;B3,C3+1,C3)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" ref="C35" si="1">+IF(B35&lt;&gt;B34,C34+1,C34)</f>
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" ref="C68:C116" si="2">+IF(B68&lt;&gt;B67,C67+1,C67)</f>
+        <v>34</v>
+      </c>
+      <c r="D68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="D69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="D72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="D73" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="D74" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="D75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="D76" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="D77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="D78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="D80" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="D81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="D84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="D85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="D86" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="D87" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="D88" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="D89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="D90" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D92" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D93" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D94" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D96" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="D97" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="D98" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="D99" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D100" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D101" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D102" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="D103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="D104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="D105" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="D106" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="D107" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="D108" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B109" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="D109" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="D110" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="D111" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>68</v>
+      </c>
+      <c r="B113" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D113" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>69</v>
+      </c>
+      <c r="B114" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D114" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="D115" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="D116" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z118"/>
   <sheetViews>
@@ -2637,14 +4406,14 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="97.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.86328125" customWidth="1"/>
+    <col min="2" max="2" width="47.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="26" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +4493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2805,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2886,7 +4655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2967,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -3048,7 +4817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -3129,7 +4898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -3210,7 +4979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -3291,7 +5060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3372,7 +5141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -3453,7 +5222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -3534,7 +5303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3615,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -3696,7 +5465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -3777,7 +5546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -3858,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -3939,7 +5708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -4020,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -4101,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>107</v>
       </c>
@@ -4182,7 +5951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>106</v>
       </c>
@@ -4263,7 +6032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="6" t="s">
         <v>105</v>
       </c>
@@ -4344,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
         <v>83</v>
       </c>
@@ -4425,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>82</v>
       </c>
@@ -4506,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="6" t="s">
         <v>81</v>
       </c>
@@ -4587,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -4668,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>87</v>
       </c>
@@ -4749,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
@@ -4830,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="6" t="s">
         <v>84</v>
       </c>
@@ -4911,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
         <v>90</v>
       </c>
@@ -4992,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>89</v>
       </c>
@@ -5073,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="6" t="s">
         <v>88</v>
       </c>
@@ -5154,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
@@ -5235,7 +7004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -5316,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>79</v>
       </c>
@@ -5397,13 +7166,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B35" s="23" t="str">
         <f>VLOOKUP(A35,col_names_map!$A:$B,2,0)</f>
-        <v>self_employment_income_freq</v>
+        <v>self_employment_income_amt</v>
       </c>
       <c r="C35" s="5">
         <v>0</v>
@@ -5478,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>74</v>
       </c>
@@ -5559,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>78</v>
       </c>
@@ -5640,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="6" t="s">
         <v>76</v>
       </c>
@@ -5721,7 +7490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -5802,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -5883,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>114</v>
       </c>
@@ -5964,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>111</v>
       </c>
@@ -6045,7 +7814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>113</v>
       </c>
@@ -6126,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>131</v>
       </c>
@@ -6207,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>108</v>
       </c>
@@ -6288,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
         <v>110</v>
       </c>
@@ -6369,7 +8138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>112</v>
       </c>
@@ -6450,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
         <v>130</v>
       </c>
@@ -6531,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="6" t="s">
         <v>109</v>
       </c>
@@ -6612,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>121</v>
       </c>
@@ -6693,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -6774,7 +8543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -6855,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -6936,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -7017,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -7098,7 +8867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -7179,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -7260,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -7341,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>104</v>
       </c>
@@ -7422,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -7503,7 +9272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -7584,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -7665,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -7746,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -7827,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -7908,7 +9677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -7989,7 +9758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -8070,7 +9839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -8151,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -8232,7 +10001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -8313,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -8394,7 +10163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>124</v>
       </c>
@@ -8475,7 +10244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -8556,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -8637,7 +10406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -8718,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>125</v>
       </c>
@@ -8799,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -8880,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -8961,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>137</v>
       </c>
@@ -9042,7 +10811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>136</v>
       </c>
@@ -9123,7 +10892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -9204,7 +10973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -9285,7 +11054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -9366,7 +11135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -9447,7 +11216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -9528,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -9609,7 +11378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>62</v>
       </c>
@@ -9690,7 +11459,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -9771,7 +11540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>67</v>
       </c>
@@ -9852,7 +11621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>64</v>
       </c>
@@ -9933,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>66</v>
       </c>
@@ -10014,7 +11783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>65</v>
       </c>
@@ -10095,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>63</v>
       </c>
@@ -10176,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>46</v>
       </c>
@@ -10257,7 +12026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>44</v>
       </c>
@@ -10338,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>45</v>
       </c>
@@ -10419,7 +12188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>49</v>
       </c>
@@ -10500,7 +12269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -10581,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>48</v>
       </c>
@@ -10662,7 +12431,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>52</v>
       </c>
@@ -10743,7 +12512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -10824,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -10905,7 +12674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>55</v>
       </c>
@@ -10986,7 +12755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>53</v>
       </c>
@@ -11067,7 +12836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>54</v>
       </c>
@@ -11148,7 +12917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>58</v>
       </c>
@@ -11229,7 +12998,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>56</v>
       </c>
@@ -11310,7 +13079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>57</v>
       </c>
@@ -11391,7 +13160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>61</v>
       </c>
@@ -11472,7 +13241,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -11553,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>60</v>
       </c>
@@ -11634,7 +13403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>70</v>
       </c>
@@ -11715,7 +13484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>68</v>
       </c>
@@ -11796,7 +13565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>69</v>
       </c>
@@ -11877,7 +13646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -11958,7 +13727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>139</v>
       </c>
@@ -12039,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C118" s="1">
         <f>MAX(C2:C116)</f>
         <v>54</v>
@@ -12160,1780 +13929,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F7AEB-9B26-45DF-B5C9-4083C8002894}">
-  <dimension ref="A1:D116"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="109.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="1">
-        <f>+IF(B3&lt;&gt;B2,C2+1,C2)</f>
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C67" si="0">+IF(B4&lt;&gt;B3,C3+1,C3)</f>
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" t="s">
-        <v>194</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D39" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D43" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D45" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D47" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D48" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D49" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D51" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D52" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D53" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D54" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D55" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D56" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D58" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D59" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D60" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D61" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" t="s">
-        <v>199</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D62" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" t="s">
-        <v>199</v>
-      </c>
-      <c r="C63" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D63" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" t="s">
-        <v>199</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D64" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D65" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D66" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" t="s">
-        <v>165</v>
-      </c>
-      <c r="C67" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="D67" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" t="s">
-        <v>165</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" ref="C68:C116" si="1">+IF(B68&lt;&gt;B67,C67+1,C67)</f>
-        <v>34</v>
-      </c>
-      <c r="D68" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D69" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" t="s">
-        <v>163</v>
-      </c>
-      <c r="C70" s="1">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D70" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="1">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D71" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C72" s="1">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="D72" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" s="1">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="D73" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="1">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="D74" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="1">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="D75" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>125</v>
-      </c>
-      <c r="B76" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76" s="1">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="D76" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" s="1">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="D77" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" t="s">
-        <v>200</v>
-      </c>
-      <c r="C78" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="D78" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" s="1">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="D79" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" t="s">
-        <v>201</v>
-      </c>
-      <c r="C80" s="1">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="D80" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>30</v>
-      </c>
-      <c r="B81" t="s">
-        <v>158</v>
-      </c>
-      <c r="C81" s="1">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="D81" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="D82" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>29</v>
-      </c>
-      <c r="B83" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="D83" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>27</v>
-      </c>
-      <c r="B84" t="s">
-        <v>156</v>
-      </c>
-      <c r="C84" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="D84" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" t="s">
-        <v>155</v>
-      </c>
-      <c r="C85" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="D85" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" t="s">
-        <v>155</v>
-      </c>
-      <c r="C86" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="D86" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C87" s="1">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="D87" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88" s="1">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="D88" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89" t="s">
-        <v>203</v>
-      </c>
-      <c r="C89" s="1">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="D89" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>64</v>
-      </c>
-      <c r="B90" t="s">
-        <v>203</v>
-      </c>
-      <c r="C90" s="1">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="D90" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>66</v>
-      </c>
-      <c r="B91" t="s">
-        <v>204</v>
-      </c>
-      <c r="C91" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="D91" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>65</v>
-      </c>
-      <c r="B92" t="s">
-        <v>204</v>
-      </c>
-      <c r="C92" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="D92" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>63</v>
-      </c>
-      <c r="B93" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="D93" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" t="s">
-        <v>153</v>
-      </c>
-      <c r="C94" s="1">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="D94" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95" t="s">
-        <v>152</v>
-      </c>
-      <c r="C95" s="1">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="D95" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>45</v>
-      </c>
-      <c r="B96" t="s">
-        <v>152</v>
-      </c>
-      <c r="C96" s="1">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="D96" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>49</v>
-      </c>
-      <c r="B97" t="s">
-        <v>151</v>
-      </c>
-      <c r="C97" s="1">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="D97" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>47</v>
-      </c>
-      <c r="B98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" s="1">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="D98" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>48</v>
-      </c>
-      <c r="B99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C99" s="1">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="D99" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>52</v>
-      </c>
-      <c r="B100" t="s">
-        <v>149</v>
-      </c>
-      <c r="C100" s="1">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D100" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101" t="s">
-        <v>148</v>
-      </c>
-      <c r="C101" s="1">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D101" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>51</v>
-      </c>
-      <c r="B102" t="s">
-        <v>148</v>
-      </c>
-      <c r="C102" s="1">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D102" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103" t="s">
-        <v>147</v>
-      </c>
-      <c r="C103" s="1">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="D103" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>53</v>
-      </c>
-      <c r="B104" t="s">
-        <v>146</v>
-      </c>
-      <c r="C104" s="1">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="D104" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>54</v>
-      </c>
-      <c r="B105" t="s">
-        <v>146</v>
-      </c>
-      <c r="C105" s="1">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="D105" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>58</v>
-      </c>
-      <c r="B106" t="s">
-        <v>145</v>
-      </c>
-      <c r="C106" s="1">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="D106" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>56</v>
-      </c>
-      <c r="B107" t="s">
-        <v>144</v>
-      </c>
-      <c r="C107" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="D107" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>57</v>
-      </c>
-      <c r="B108" t="s">
-        <v>144</v>
-      </c>
-      <c r="C108" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="D108" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>61</v>
-      </c>
-      <c r="B109" t="s">
-        <v>143</v>
-      </c>
-      <c r="C109" s="1">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="D109" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C110" s="1">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="D110" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>60</v>
-      </c>
-      <c r="B111" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111" s="1">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="D111" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>70</v>
-      </c>
-      <c r="B112" t="s">
-        <v>141</v>
-      </c>
-      <c r="C112" s="1">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="D112" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>68</v>
-      </c>
-      <c r="B113" t="s">
-        <v>140</v>
-      </c>
-      <c r="C113" s="1">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="D113" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>69</v>
-      </c>
-      <c r="B114" t="s">
-        <v>140</v>
-      </c>
-      <c r="C114" s="1">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="D114" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>138</v>
-      </c>
-      <c r="B115" t="s">
-        <v>138</v>
-      </c>
-      <c r="C115" s="1">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="D115" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>139</v>
-      </c>
-      <c r="B116" t="s">
-        <v>139</v>
-      </c>
-      <c r="C116" s="1">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="D116" t="s">
-        <v>206</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FBE9F9-2A6A-42D1-B620-5712098B0DFA}">
   <dimension ref="A3:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="29" t="s">
         <v>209</v>
       </c>
@@ -13941,7 +13950,7 @@
       <c r="C3" s="28"/>
       <c r="D3" s="33"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="29" t="s">
         <v>213</v>
       </c>
@@ -13955,7 +13964,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="27">
         <v>1</v>
       </c>
@@ -13969,7 +13978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="27">
         <v>2</v>
       </c>
@@ -13983,7 +13992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="27">
         <v>3</v>
       </c>
@@ -13997,7 +14006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="27">
         <v>4</v>
       </c>
@@ -14011,7 +14020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="27">
         <v>5</v>
       </c>
@@ -14025,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="27">
         <v>6</v>
       </c>
@@ -14039,7 +14048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="27">
         <v>7</v>
       </c>
@@ -14053,7 +14062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="27">
         <v>8</v>
       </c>
@@ -14067,7 +14076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="27">
         <v>9</v>
       </c>
@@ -14081,7 +14090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="27">
         <v>10</v>
       </c>
@@ -14095,7 +14104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="27">
         <v>11</v>
       </c>
@@ -14109,7 +14118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="27">
         <v>12</v>
       </c>
@@ -14123,7 +14132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="27">
         <v>13</v>
       </c>
@@ -14137,7 +14146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="27">
         <v>14</v>
       </c>
@@ -14151,7 +14160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="27">
         <v>15</v>
       </c>
@@ -14165,7 +14174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="27">
         <v>16</v>
       </c>
@@ -14179,7 +14188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="27">
         <v>17</v>
       </c>
@@ -14193,7 +14202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="27">
         <v>18</v>
       </c>
@@ -14207,7 +14216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="27">
         <v>19</v>
       </c>
@@ -14221,7 +14230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="27">
         <v>20</v>
       </c>
@@ -14235,7 +14244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="27">
         <v>21</v>
       </c>
@@ -14249,7 +14258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="27">
         <v>22</v>
       </c>
@@ -14263,7 +14272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="27">
         <v>23</v>
       </c>
@@ -14277,7 +14286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="27">
         <v>24</v>
       </c>
@@ -14291,7 +14300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="27">
         <v>25</v>
       </c>
@@ -14305,7 +14314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="27">
         <v>26</v>
       </c>
@@ -14319,7 +14328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="27">
         <v>27</v>
       </c>
@@ -14333,7 +14342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="27">
         <v>28</v>
       </c>
@@ -14347,7 +14356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="27">
         <v>29</v>
       </c>
@@ -14361,7 +14370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="27">
         <v>30</v>
       </c>
@@ -14375,7 +14384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="27">
         <v>31</v>
       </c>
@@ -14389,7 +14398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="27">
         <v>32</v>
       </c>
@@ -14403,7 +14412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="27">
         <v>33</v>
       </c>
@@ -14417,7 +14426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="27">
         <v>34</v>
       </c>
@@ -14431,7 +14440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="27">
         <v>35</v>
       </c>
@@ -14445,7 +14454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="27">
         <v>36</v>
       </c>
@@ -14459,7 +14468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="27">
         <v>37</v>
       </c>
@@ -14473,7 +14482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="27">
         <v>38</v>
       </c>
@@ -14487,7 +14496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="27">
         <v>39</v>
       </c>
@@ -14501,7 +14510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="27">
         <v>40</v>
       </c>
@@ -14515,7 +14524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="27">
         <v>41</v>
       </c>
@@ -14529,7 +14538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="27">
         <v>42</v>
       </c>
@@ -14543,7 +14552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="27">
         <v>43</v>
       </c>
@@ -14557,7 +14566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="27">
         <v>44</v>
       </c>
@@ -14571,7 +14580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="27">
         <v>45</v>
       </c>
@@ -14585,7 +14594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="27">
         <v>46</v>
       </c>
@@ -14599,7 +14608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="27">
         <v>47</v>
       </c>
@@ -14613,7 +14622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="27">
         <v>48</v>
       </c>
@@ -14627,7 +14636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="27">
         <v>49</v>
       </c>
@@ -14641,7 +14650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="27">
         <v>50</v>
       </c>
@@ -14655,7 +14664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="27">
         <v>51</v>
       </c>
@@ -14669,7 +14678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="27">
         <v>52</v>
       </c>
@@ -14683,7 +14692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="27">
         <v>53</v>
       </c>
@@ -14697,7 +14706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="27">
         <v>54</v>
       </c>
@@ -14711,7 +14720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="27">
         <v>55</v>
       </c>
@@ -14725,7 +14734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="27">
         <v>56</v>
       </c>
@@ -14739,7 +14748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="27">
         <v>57</v>
       </c>
@@ -14753,7 +14762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="27">
         <v>58</v>
       </c>
@@ -14767,7 +14776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="27">
         <v>59</v>
       </c>
@@ -14781,7 +14790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="27">
         <v>60</v>
       </c>
@@ -14795,7 +14804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="27">
         <v>61</v>
       </c>
@@ -14809,7 +14818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="27">
         <v>62</v>
       </c>
@@ -14823,7 +14832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="27">
         <v>63</v>
       </c>
@@ -14837,7 +14846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="27">
         <v>64</v>
       </c>
@@ -14851,7 +14860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="27">
         <v>65</v>
       </c>
@@ -14865,7 +14874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="30">
         <v>66</v>
       </c>
